--- a/biology/Médecine/Louis_Capitan/Louis_Capitan.xlsx
+++ b/biology/Médecine/Louis_Capitan/Louis_Capitan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Louis Capitan, né le 19 avril 1854 à Paris et mort le 26 août 1929 dans la même ville, est un médecin, anthropologue et préhistorien français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Capitan fut élève de Claude Bernard, interne des hôpitaux de Paris, docteur en 1883, puis chef de clinique à l'Hôtel-Dieu et médecin consultant à la Pitié.
 Élève de Gabriel de Mortillet, le docteur Capitan est associé aux débuts de l'anthropologie préhistorique et en particulier à la découverte en 1901 des grottes ornées des Combarelles et de Font-de-Gaume située en Dordogne aux Eyzies avec Henri Breuil et Denis Peyrony. Il participe aux fouilles de nombreux sites, dont Laugerie-Haute, Teyjat, La Ferrassie, La Madeleine, Saint-Acheul et Font-de-Gaume.
-À partir de 1898, il donne des cours d'anthropologie préhistorique à l'École d'anthropologie avant d'être chargé du cours d'Antiquités américaines au Collège de France en 1908[2].
-Le square Capitan, à proximité des arènes de Lutèce, dont il avait entrepris la restauration après 1916[3], porte son nom.
+À partir de 1898, il donne des cours d'anthropologie préhistorique à l'École d'anthropologie avant d'être chargé du cours d'Antiquités américaines au Collège de France en 1908.
+Le square Capitan, à proximité des arènes de Lutèce, dont il avait entrepris la restauration après 1916, porte son nom.
 </t>
         </is>
       </c>
